--- a/data/trans_orig/P36B14-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36B14-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7D61DBF-5061-4B8A-B076-4B1937FDCB46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD1B8433-938D-4144-B0C2-0613C783B689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F36AB8D0-FFAA-4FD0-B9C0-B4BC0E5ED83C}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{12689598-AFDF-40D8-B9A0-2B46EFDEE75A}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="192">
-  <si>
-    <t>Población según la frecuencia de consumición de refrescos con azucar en 2015 (Tasa respuesta: 99,39%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="191">
+  <si>
+    <t>Población según la frecuencia de consumo de refrescos con azúcar en 2015 (Tasa respuesta: 99,39%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -74,28 +74,28 @@
     <t>48,42%</t>
   </si>
   <si>
-    <t>44,79%</t>
-  </si>
-  <si>
-    <t>52,14%</t>
+    <t>44,58%</t>
+  </si>
+  <si>
+    <t>51,56%</t>
   </si>
   <si>
     <t>54,15%</t>
   </si>
   <si>
-    <t>50,45%</t>
-  </si>
-  <si>
-    <t>57,19%</t>
+    <t>50,47%</t>
+  </si>
+  <si>
+    <t>57,28%</t>
   </si>
   <si>
     <t>51,68%</t>
   </si>
   <si>
-    <t>49,16%</t>
-  </si>
-  <si>
-    <t>54,21%</t>
+    <t>49,33%</t>
+  </si>
+  <si>
+    <t>53,96%</t>
   </si>
   <si>
     <t>Menos de 1 vez semana</t>
@@ -104,28 +104,28 @@
     <t>15,52%</t>
   </si>
   <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
   </si>
   <si>
     <t>16,93%</t>
   </si>
   <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
   </si>
   <si>
     <t>16,32%</t>
   </si>
   <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
   </si>
   <si>
     <t>Una/dos veces a la semana</t>
@@ -134,28 +134,28 @@
     <t>16,21%</t>
   </si>
   <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
   </si>
   <si>
     <t>13,43%</t>
   </si>
   <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
   </si>
   <si>
     <t>14,63%</t>
   </si>
   <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
   </si>
   <si>
     <t>Tres o más veces a la semana</t>
@@ -164,10 +164,10 @@
     <t>11,23%</t>
   </si>
   <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
   </si>
   <si>
     <t>9,63%</t>
@@ -176,16 +176,16 @@
     <t>7,88%</t>
   </si>
   <si>
-    <t>11,91%</t>
+    <t>11,8%</t>
   </si>
   <si>
     <t>10,32%</t>
   </si>
   <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
   </si>
   <si>
     <t>A diario</t>
@@ -194,25 +194,25 @@
     <t>8,63%</t>
   </si>
   <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
   </si>
   <si>
     <t>5,86%</t>
   </si>
   <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
   </si>
   <si>
     <t>7,05%</t>
   </si>
   <si>
-    <t>5,97%</t>
+    <t>5,87%</t>
   </si>
   <si>
     <t>8,37%</t>
@@ -227,346 +227,343 @@
     <t>25,17%</t>
   </si>
   <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
   </si>
   <si>
     <t>29,32%</t>
   </si>
   <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
   </si>
   <si>
     <t>27,2%</t>
   </si>
   <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
   </si>
   <si>
     <t>15,12%</t>
   </si>
   <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
   </si>
   <si>
     <t>15,26%</t>
   </si>
   <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
+    <t>16,91%</t>
   </si>
   <si>
     <t>15,19%</t>
   </si>
   <si>
-    <t>14,14%</t>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
   </si>
   <si>
     <t>19,19%</t>
   </si>
   <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>29,39%</t>
+  </si>
+  <si>
+    <t>37,69%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
     <t>17,48%</t>
   </si>
   <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>36,96%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>38,65%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
   </si>
   <si>
     <t>15,94%</t>
   </si>
   <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>33,79%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>38,09%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>37,79%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>36,48%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>33,43%</t>
-  </si>
-  <si>
-    <t>36,96%</t>
-  </si>
-  <si>
-    <t>35,36%</t>
-  </si>
-  <si>
-    <t>38,86%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>35,62%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
+    <t>18,52%</t>
   </si>
   <si>
     <t>17,67%</t>
   </si>
   <si>
-    <t>16,81%</t>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
   </si>
   <si>
     <t>18,61%</t>
   </si>
   <si>
-    <t>17,31%</t>
+    <t>17,34%</t>
   </si>
   <si>
     <t>20,0%</t>
@@ -575,40 +572,40 @@
     <t>16,0%</t>
   </si>
   <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
   </si>
   <si>
     <t>15,62%</t>
   </si>
   <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
   </si>
   <si>
     <t>13,26%</t>
   </si>
   <si>
-    <t>12,26%</t>
+    <t>12,13%</t>
   </si>
   <si>
     <t>14,41%</t>
   </si>
   <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1023,7 +1020,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB077AE2-F235-46D6-B811-D8EDF2971CA7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF81579C-5E88-4086-A608-6F3718DE29C2}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1467,7 +1464,7 @@
         <v>536</v>
       </c>
       <c r="I10" s="7">
-        <v>579674</v>
+        <v>579673</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>65</v>
@@ -1482,7 +1479,7 @@
         <v>1018</v>
       </c>
       <c r="N10" s="7">
-        <v>1099639</v>
+        <v>1099640</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>68</v>
@@ -1524,10 +1521,10 @@
         <v>74</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="M11" s="7">
         <v>579</v>
@@ -1536,13 +1533,13 @@
         <v>614054</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1584,7 +1581,7 @@
         <v>742</v>
       </c>
       <c r="N12" s="7">
-        <v>769138</v>
+        <v>769139</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>85</v>
@@ -1671,7 +1668,7 @@
         <v>340</v>
       </c>
       <c r="I14" s="7">
-        <v>344816</v>
+        <v>344815</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>100</v>
@@ -1722,7 +1719,7 @@
         <v>1898</v>
       </c>
       <c r="I15" s="7">
-        <v>1976925</v>
+        <v>1976924</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>60</v>
@@ -1737,7 +1734,7 @@
         <v>3840</v>
       </c>
       <c r="N15" s="7">
-        <v>4042333</v>
+        <v>4042334</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>60</v>
@@ -1868,10 +1865,10 @@
         <v>125</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>25</v>
+        <v>126</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H18" s="7">
         <v>93</v>
@@ -1880,13 +1877,13 @@
         <v>95082</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M18" s="7">
         <v>182</v>
@@ -1895,13 +1892,13 @@
         <v>190818</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1916,13 +1913,13 @@
         <v>97215</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>132</v>
+        <v>86</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H19" s="7">
         <v>89</v>
@@ -1931,13 +1928,13 @@
         <v>89007</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>32</v>
+        <v>137</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M19" s="7">
         <v>182</v>
@@ -1946,13 +1943,13 @@
         <v>186223</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1967,10 +1964,10 @@
         <v>66408</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>141</v>
+        <v>44</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>142</v>
@@ -2122,13 +2119,13 @@
         <v>528679</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="H23" s="7">
         <v>551</v>
@@ -2137,13 +2134,13 @@
         <v>585176</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="M23" s="7">
         <v>1047</v>
@@ -2152,13 +2149,13 @@
         <v>1113854</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2173,13 +2170,13 @@
         <v>612788</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="H24" s="7">
         <v>577</v>
@@ -2188,13 +2185,13 @@
         <v>600201</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="M24" s="7">
         <v>1163</v>
@@ -2203,13 +2200,13 @@
         <v>1212988</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2224,13 +2221,13 @@
         <v>624408</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="H25" s="7">
         <v>549</v>
@@ -2239,13 +2236,13 @@
         <v>561744</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M25" s="7">
         <v>1147</v>
@@ -2254,13 +2251,13 @@
         <v>1186152</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2275,13 +2272,13 @@
         <v>523979</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="H26" s="7">
         <v>458</v>
@@ -2290,13 +2287,13 @@
         <v>465331</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="M26" s="7">
         <v>953</v>
@@ -2305,13 +2302,13 @@
         <v>989310</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2367,7 +2364,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B14-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36B14-Estudios-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD1B8433-938D-4144-B0C2-0613C783B689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{78D4E2AA-FDBD-4BF3-87CE-EBB678EC116B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{12689598-AFDF-40D8-B9A0-2B46EFDEE75A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{61F3F6E7-AEAD-435F-965F-C1A931D46993}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="191">
-  <si>
-    <t>Población según la frecuencia de consumo de refrescos con azúcar en 2015 (Tasa respuesta: 99,39%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="195">
+  <si>
+    <t>Población según la frecuencia de consumo de refrescos con azúcar en 2016 (Tasa respuesta: 99,39%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -74,28 +74,28 @@
     <t>48,42%</t>
   </si>
   <si>
-    <t>44,58%</t>
-  </si>
-  <si>
-    <t>51,56%</t>
+    <t>44,89%</t>
+  </si>
+  <si>
+    <t>52,1%</t>
   </si>
   <si>
     <t>54,15%</t>
   </si>
   <si>
-    <t>50,47%</t>
-  </si>
-  <si>
-    <t>57,28%</t>
+    <t>50,72%</t>
+  </si>
+  <si>
+    <t>57,37%</t>
   </si>
   <si>
     <t>51,68%</t>
   </si>
   <si>
-    <t>49,33%</t>
-  </si>
-  <si>
-    <t>53,96%</t>
+    <t>49,34%</t>
+  </si>
+  <si>
+    <t>54,3%</t>
   </si>
   <si>
     <t>Menos de 1 vez semana</t>
@@ -104,493 +104,502 @@
     <t>15,52%</t>
   </si>
   <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
   </si>
   <si>
     <t>16,93%</t>
   </si>
   <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>Una/dos veces a la semana</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>Tres o más veces a la semana</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>38,44%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>37,8%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>36,47%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>36,96%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>38,75%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>33,34%</t>
+  </si>
+  <si>
+    <t>35,57%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
     <t>14,55%</t>
   </si>
   <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>Una/dos veces a la semana</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>Tres o más veces a la semana</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
   </si>
   <si>
     <t>17,28%</t>
   </si>
   <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>33,79%</t>
-  </si>
-  <si>
-    <t>29,39%</t>
-  </si>
-  <si>
-    <t>37,69%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>37,77%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>36,96%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
     <t>16,35%</t>
   </si>
   <si>
-    <t>18,12%</t>
+    <t>18,23%</t>
   </si>
   <si>
     <t>15,62%</t>
   </si>
   <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
+    <t>16,94%</t>
   </si>
   <si>
     <t>13,26%</t>
@@ -599,10 +608,13 @@
     <t>12,13%</t>
   </si>
   <si>
+    <t>14,56%</t>
+  </si>
+  <si>
     <t>14,41%</t>
   </si>
   <si>
-    <t>13,62%</t>
+    <t>13,66%</t>
   </si>
   <si>
     <t>15,3%</t>
@@ -1020,7 +1032,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF81579C-5E88-4086-A608-6F3718DE29C2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5E2D6C7-B162-41E6-B5E2-8A1E76EDFFB2}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1521,10 +1533,10 @@
         <v>74</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M11" s="7">
         <v>579</v>
@@ -1533,13 +1545,13 @@
         <v>614054</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1554,13 +1566,13 @@
         <v>396274</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>363</v>
@@ -1569,13 +1581,13 @@
         <v>372864</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>742</v>
@@ -1584,13 +1596,13 @@
         <v>769139</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1605,13 +1617,13 @@
         <v>443521</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>371</v>
@@ -1620,13 +1632,13 @@
         <v>377902</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>793</v>
@@ -1635,13 +1647,13 @@
         <v>821423</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1656,13 +1668,13 @@
         <v>393263</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>340</v>
@@ -1671,13 +1683,13 @@
         <v>344815</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M14" s="7">
         <v>708</v>
@@ -1686,13 +1698,13 @@
         <v>738079</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1748,7 +1760,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1760,13 +1772,13 @@
         <v>183748</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H16" s="7">
         <v>168</v>
@@ -1775,13 +1787,13 @@
         <v>184359</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M16" s="7">
         <v>330</v>
@@ -1790,13 +1802,13 @@
         <v>368106</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1811,13 +1823,13 @@
         <v>100671</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H17" s="7">
         <v>112</v>
@@ -1826,13 +1838,13 @@
         <v>116713</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M17" s="7">
         <v>201</v>
@@ -1841,13 +1853,13 @@
         <v>217383</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1862,13 +1874,13 @@
         <v>95736</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H18" s="7">
         <v>93</v>
@@ -1877,7 +1889,7 @@
         <v>95082</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>129</v>
@@ -1892,13 +1904,13 @@
         <v>190818</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1913,7 +1925,7 @@
         <v>97215</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>86</v>
+        <v>133</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>134</v>
@@ -1946,10 +1958,10 @@
         <v>139</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>117</v>
+        <v>140</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1964,13 +1976,13 @@
         <v>66408</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>44</v>
+        <v>143</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H20" s="7">
         <v>63</v>
@@ -1979,13 +1991,13 @@
         <v>62810</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M20" s="7">
         <v>128</v>
@@ -1994,13 +2006,13 @@
         <v>129218</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2068,13 +2080,13 @@
         <v>1064520</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H22" s="7">
         <v>1173</v>
@@ -2083,13 +2095,13 @@
         <v>1297375</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M22" s="7">
         <v>2191</v>
@@ -2098,13 +2110,13 @@
         <v>2361894</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2119,13 +2131,13 @@
         <v>528679</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>36</v>
+        <v>160</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="H23" s="7">
         <v>551</v>
@@ -2134,13 +2146,13 @@
         <v>585176</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>160</v>
+        <v>73</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M23" s="7">
         <v>1047</v>
@@ -2149,13 +2161,13 @@
         <v>1113854</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>74</v>
+        <v>166</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2170,13 +2182,13 @@
         <v>612788</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H24" s="7">
         <v>577</v>
@@ -2185,13 +2197,13 @@
         <v>600201</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="M24" s="7">
         <v>1163</v>
@@ -2200,13 +2212,13 @@
         <v>1212988</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2221,13 +2233,13 @@
         <v>624408</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="H25" s="7">
         <v>549</v>
@@ -2236,13 +2248,13 @@
         <v>561744</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="M25" s="7">
         <v>1147</v>
@@ -2251,13 +2263,13 @@
         <v>1186152</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>92</v>
+        <v>183</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2272,13 +2284,13 @@
         <v>523979</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>183</v>
+        <v>127</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H26" s="7">
         <v>458</v>
@@ -2287,13 +2299,13 @@
         <v>465331</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="M26" s="7">
         <v>953</v>
@@ -2302,13 +2314,13 @@
         <v>989310</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2320,7 +2332,7 @@
         <v>3193</v>
       </c>
       <c r="D27" s="7">
-        <v>3354373</v>
+        <v>3354374</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>60</v>
@@ -2364,7 +2376,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B14-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36B14-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{78D4E2AA-FDBD-4BF3-87CE-EBB678EC116B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{43D5EB11-783C-4D8F-99FD-70ED7A34891E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{61F3F6E7-AEAD-435F-965F-C1A931D46993}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1560F453-683B-4B3A-8888-58DEB921235C}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="192">
   <si>
     <t>Población según la frecuencia de consumo de refrescos con azúcar en 2016 (Tasa respuesta: 99,39%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>48,42%</t>
   </si>
   <si>
-    <t>44,89%</t>
-  </si>
-  <si>
-    <t>52,1%</t>
+    <t>44,79%</t>
+  </si>
+  <si>
+    <t>52,14%</t>
   </si>
   <si>
     <t>54,15%</t>
   </si>
   <si>
-    <t>50,72%</t>
-  </si>
-  <si>
-    <t>57,37%</t>
+    <t>50,45%</t>
+  </si>
+  <si>
+    <t>57,19%</t>
   </si>
   <si>
     <t>51,68%</t>
   </si>
   <si>
-    <t>49,34%</t>
-  </si>
-  <si>
-    <t>54,3%</t>
+    <t>49,16%</t>
+  </si>
+  <si>
+    <t>54,21%</t>
   </si>
   <si>
     <t>Menos de 1 vez semana</t>
@@ -104,28 +104,28 @@
     <t>15,52%</t>
   </si>
   <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
   </si>
   <si>
     <t>16,93%</t>
   </si>
   <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
   </si>
   <si>
     <t>16,32%</t>
   </si>
   <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
   </si>
   <si>
     <t>Una/dos veces a la semana</t>
@@ -134,28 +134,28 @@
     <t>16,21%</t>
   </si>
   <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
   </si>
   <si>
     <t>13,43%</t>
   </si>
   <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
   </si>
   <si>
     <t>14,63%</t>
   </si>
   <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
   </si>
   <si>
     <t>Tres o más veces a la semana</t>
@@ -164,28 +164,28 @@
     <t>11,23%</t>
   </si>
   <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
   </si>
   <si>
     <t>9,63%</t>
   </si>
   <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
   </si>
   <si>
     <t>10,32%</t>
   </si>
   <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
   </si>
   <si>
     <t>A diario</t>
@@ -194,28 +194,28 @@
     <t>8,63%</t>
   </si>
   <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
   </si>
   <si>
     <t>5,86%</t>
   </si>
   <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
   </si>
   <si>
     <t>7,05%</t>
   </si>
   <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
   </si>
   <si>
     <t>100%</t>
@@ -227,397 +227,388 @@
     <t>25,17%</t>
   </si>
   <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
   </si>
   <si>
     <t>29,32%</t>
   </si>
   <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
   </si>
   <si>
     <t>27,2%</t>
   </si>
   <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
   </si>
   <si>
     <t>15,12%</t>
   </si>
   <si>
-    <t>13,34%</t>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>38,09%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>37,79%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>36,48%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
+  </si>
+  <si>
+    <t>36,96%</t>
+  </si>
+  <si>
+    <t>35,36%</t>
+  </si>
+  <si>
+    <t>38,86%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>33,34%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
   </si>
   <si>
     <t>16,67%</t>
   </si>
   <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>33,79%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>38,44%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>37,8%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>36,47%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>33,17%</t>
-  </si>
-  <si>
-    <t>36,96%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>35,57%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
   </si>
   <si>
     <t>15,39%</t>
   </si>
   <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
+    <t>17,19%</t>
   </si>
   <si>
     <t>18,27%</t>
   </si>
   <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
   </si>
   <si>
     <t>17,1%</t>
   </si>
   <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
   </si>
   <si>
     <t>17,67%</t>
   </si>
   <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
+    <t>16,81%</t>
   </si>
   <si>
     <t>18,61%</t>
   </si>
   <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
   </si>
   <si>
     <t>16,0%</t>
   </si>
   <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
+    <t>14,72%</t>
   </si>
   <si>
     <t>17,28%</t>
   </si>
   <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
   </si>
   <si>
     <t>15,62%</t>
   </si>
   <si>
-    <t>16,94%</t>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
   </si>
   <si>
     <t>13,26%</t>
   </si>
   <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
+    <t>12,26%</t>
   </si>
   <si>
     <t>14,41%</t>
   </si>
   <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1032,7 +1023,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5E2D6C7-B162-41E6-B5E2-8A1E76EDFFB2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AE94940-D8DD-4234-B08E-646C63714E53}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1476,7 +1467,7 @@
         <v>536</v>
       </c>
       <c r="I10" s="7">
-        <v>579673</v>
+        <v>579674</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>65</v>
@@ -1491,7 +1482,7 @@
         <v>1018</v>
       </c>
       <c r="N10" s="7">
-        <v>1099640</v>
+        <v>1099639</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>68</v>
@@ -1551,7 +1542,7 @@
         <v>78</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1566,13 +1557,13 @@
         <v>396274</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>363</v>
@@ -1581,28 +1572,28 @@
         <v>372864</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>742</v>
       </c>
       <c r="N12" s="7">
-        <v>769139</v>
+        <v>769138</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1617,13 +1608,13 @@
         <v>443521</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>371</v>
@@ -1632,13 +1623,13 @@
         <v>377902</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>793</v>
@@ -1647,13 +1638,13 @@
         <v>821423</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1668,28 +1659,28 @@
         <v>393263</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>340</v>
       </c>
       <c r="I14" s="7">
-        <v>344815</v>
+        <v>344816</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M14" s="7">
         <v>708</v>
@@ -1698,13 +1689,13 @@
         <v>738079</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1731,7 +1722,7 @@
         <v>1898</v>
       </c>
       <c r="I15" s="7">
-        <v>1976924</v>
+        <v>1976925</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>60</v>
@@ -1746,7 +1737,7 @@
         <v>3840</v>
       </c>
       <c r="N15" s="7">
-        <v>4042334</v>
+        <v>4042333</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>60</v>
@@ -1760,7 +1751,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1772,13 +1763,13 @@
         <v>183748</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H16" s="7">
         <v>168</v>
@@ -1787,13 +1778,13 @@
         <v>184359</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M16" s="7">
         <v>330</v>
@@ -1802,13 +1793,13 @@
         <v>368106</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1823,13 +1814,13 @@
         <v>100671</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H17" s="7">
         <v>112</v>
@@ -1838,13 +1829,13 @@
         <v>116713</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M17" s="7">
         <v>201</v>
@@ -1853,13 +1844,13 @@
         <v>217383</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1874,13 +1865,13 @@
         <v>95736</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H18" s="7">
         <v>93</v>
@@ -1889,13 +1880,13 @@
         <v>95082</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="K18" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M18" s="7">
         <v>182</v>
@@ -1904,13 +1895,13 @@
         <v>190818</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P18" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1925,13 +1916,13 @@
         <v>97215</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H19" s="7">
         <v>89</v>
@@ -1940,13 +1931,13 @@
         <v>89007</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M19" s="7">
         <v>182</v>
@@ -1955,13 +1946,13 @@
         <v>186223</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1976,13 +1967,13 @@
         <v>66408</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="H20" s="7">
         <v>63</v>
@@ -1991,13 +1982,13 @@
         <v>62810</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M20" s="7">
         <v>128</v>
@@ -2006,13 +1997,13 @@
         <v>129218</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2080,13 +2071,13 @@
         <v>1064520</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="H22" s="7">
         <v>1173</v>
@@ -2095,13 +2086,13 @@
         <v>1297375</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M22" s="7">
         <v>2191</v>
@@ -2110,13 +2101,13 @@
         <v>2361894</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2131,13 +2122,13 @@
         <v>528679</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="H23" s="7">
         <v>551</v>
@@ -2146,13 +2137,13 @@
         <v>585176</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>73</v>
+        <v>161</v>
       </c>
       <c r="K23" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="M23" s="7">
         <v>1047</v>
@@ -2161,13 +2152,13 @@
         <v>1113854</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2182,13 +2173,13 @@
         <v>612788</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="H24" s="7">
         <v>577</v>
@@ -2197,13 +2188,13 @@
         <v>600201</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="M24" s="7">
         <v>1163</v>
@@ -2212,13 +2203,13 @@
         <v>1212988</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2233,13 +2224,13 @@
         <v>624408</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="H25" s="7">
         <v>549</v>
@@ -2248,13 +2239,13 @@
         <v>561744</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="M25" s="7">
         <v>1147</v>
@@ -2263,13 +2254,13 @@
         <v>1186152</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2284,13 +2275,13 @@
         <v>523979</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>127</v>
+        <v>184</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H26" s="7">
         <v>458</v>
@@ -2299,13 +2290,13 @@
         <v>465331</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>190</v>
+        <v>159</v>
       </c>
       <c r="M26" s="7">
         <v>953</v>
@@ -2314,13 +2305,13 @@
         <v>989310</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2332,7 +2323,7 @@
         <v>3193</v>
       </c>
       <c r="D27" s="7">
-        <v>3354374</v>
+        <v>3354373</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>60</v>
@@ -2376,7 +2367,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B14-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36B14-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{43D5EB11-783C-4D8F-99FD-70ED7A34891E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3927DBA9-7E77-4E19-A919-A09196F21E32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1560F453-683B-4B3A-8888-58DEB921235C}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{6F300236-8E31-4040-9221-3778C70A2928}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="2" r:id="rId1"/>
@@ -1023,7 +1023,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AE94940-D8DD-4234-B08E-646C63714E53}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B5E1C58-C88D-4A11-B591-71001A4BAD7A}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1790,7 +1790,7 @@
         <v>330</v>
       </c>
       <c r="N16" s="7">
-        <v>368106</v>
+        <v>368107</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>113</v>
@@ -2045,7 +2045,7 @@
         <v>1023</v>
       </c>
       <c r="N21" s="7">
-        <v>1091748</v>
+        <v>1091749</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>60</v>
